--- a/备注说明/纷简历搜索对照表.xlsx
+++ b/备注说明/纷简历搜索对照表.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="城市（area）" sheetId="1" r:id="rId1"/>
     <sheet name="教育经历（degree）" sheetId="2" r:id="rId2"/>
     <sheet name="性别（sex）" sheetId="8" state="hidden" r:id="rId3"/>
-    <sheet name="行业（trade）" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="行业（trade）" sheetId="10" r:id="rId4"/>
     <sheet name="排序（sort_field）" sheetId="9" state="hidden" r:id="rId5"/>
-    <sheet name="职业（job）" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="职业（job）" sheetId="3" r:id="rId6"/>
     <sheet name="求职状态（job_state）" sheetId="4" state="hidden" r:id="rId7"/>
     <sheet name="语言（language）" sheetId="5" state="hidden" r:id="rId8"/>
     <sheet name="婚姻情况（marriage）" sheetId="7" state="hidden" r:id="rId9"/>
@@ -4648,9 +4648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10849,9 +10847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10999,9 +10995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11929,9 +11923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E810"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
